--- a/biology/Médecine/Josep_Trueta/Josep_Trueta.xlsx
+++ b/biology/Médecine/Josep_Trueta/Josep_Trueta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Josep Trueta i Raspall (Barcelone, 27 octobre 1897 - Barcelone, 19 janvier 1977) est un chirurgien catalan. Pendant la guerre civile espagnole, il développa un procédé de traitement des fractures ouvertes. Il fut professeur d'orthopédie à l'université d'Oxford et membre du Conseil national catalan (1940).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Josep Trueta i Raspall nait le 27 octobre 1897 au Poblenou de Barcelone. Malgré l'intérêt pour le dessin et la peinture, il étudia médecine à l'université de Barcelone. En 1921 il passe sa maîtrise et il alla à Madrid afin de faire le doctorat. Trueta s'inscrivit en analyse chimique, histoire de la médecine, urologie et parasitologie. L'an suivant, il entra dans l'équipe du grand chirurgien docteur Manuel Corachan à l'hôpital de la Santa Creu i Sant Pau. Se spécialisa en chirurgie des extrémités. En 1923 il se maria avec Amèlia Llacuna, avec laquelle aurait trois filles et un fils (qui meurt jeune). 
 Comme chef de service de l'hôpital général, Trueta mit en pratique pendant la guerre civile espagnole la méthode de traitement des blessures et des fractures de guerre, à partir de la méthode définie par le Nord-Américain H. Winnett Orr (en). Trueta est témoin des ravages causés chez la population civile à cause des bombardements.
